--- a/5. Optical_pumping/data/rabi_oscillations.xlsx
+++ b/5. Optical_pumping/data/rabi_oscillations.xlsx
@@ -16,9 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t xml:space="preserve">Rabi oscilation period </t>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Freq</t>
+  </si>
+  <si>
+    <t>Vpp</t>
   </si>
 </sst>
 </file>
@@ -589,15 +595,19 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" ht="14.25">
       <c r="A2" s="1">
         <v>960</v>
       </c>
       <c r="B2" s="1">
-        <f>1/A2</f>
+        <f t="shared" ref="B2:B9" si="0">1/A2</f>
         <v>0.0010416666666666667</v>
       </c>
       <c r="C2" s="1">
@@ -609,7 +619,7 @@
         <v>680</v>
       </c>
       <c r="B3" s="1">
-        <f>1/A3</f>
+        <f t="shared" si="0"/>
         <v>0.0014705882352941176</v>
       </c>
       <c r="C3" s="1">
@@ -621,7 +631,7 @@
         <v>620</v>
       </c>
       <c r="B4" s="1">
-        <f>1/A4</f>
+        <f t="shared" si="0"/>
         <v>0.0016129032258064516</v>
       </c>
       <c r="C4" s="1">
@@ -633,7 +643,7 @@
         <v>500</v>
       </c>
       <c r="B5" s="1">
-        <f>1/A5</f>
+        <f t="shared" si="0"/>
         <v>0.002</v>
       </c>
       <c r="C5" s="1">
@@ -645,7 +655,7 @@
         <v>440</v>
       </c>
       <c r="B6" s="1">
-        <f>1/A6</f>
+        <f t="shared" si="0"/>
         <v>0.0022727272727272726</v>
       </c>
       <c r="C6" s="1">
@@ -658,7 +668,7 @@
         <v>420</v>
       </c>
       <c r="B7" s="1">
-        <f>1/A7</f>
+        <f t="shared" si="0"/>
         <v>0.0023809523809523812</v>
       </c>
       <c r="C7" s="1">
@@ -670,7 +680,7 @@
         <v>390</v>
       </c>
       <c r="B8" s="1">
-        <f>1/A8</f>
+        <f t="shared" si="0"/>
         <v>0.0025641025641025641</v>
       </c>
       <c r="C8" s="1">
@@ -682,7 +692,7 @@
         <v>370</v>
       </c>
       <c r="B9" s="1">
-        <f>1/A9</f>
+        <f t="shared" si="0"/>
         <v>0.0027027027027027029</v>
       </c>
       <c r="C9" s="1">
